--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="H2">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="I2">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="J2">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.77401453490967</v>
+        <v>79.465682</v>
       </c>
       <c r="N2">
-        <v>4.77401453490967</v>
+        <v>238.397046</v>
       </c>
       <c r="O2">
-        <v>0.01844673070180608</v>
+        <v>0.2316778771755457</v>
       </c>
       <c r="P2">
-        <v>0.01844673070180608</v>
+        <v>0.2316778771755458</v>
       </c>
       <c r="Q2">
-        <v>247.9463830387684</v>
+        <v>4567.570745738824</v>
       </c>
       <c r="R2">
-        <v>247.9463830387684</v>
+        <v>41108.13671164942</v>
       </c>
       <c r="S2">
-        <v>0.004294392841846097</v>
+        <v>0.05594271427397711</v>
       </c>
       <c r="T2">
-        <v>0.004294392841846097</v>
+        <v>0.05594271427397712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="H3">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="I3">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="J3">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.1744321870268</v>
+        <v>21.22335033333333</v>
       </c>
       <c r="N3">
-        <v>21.1744321870268</v>
+        <v>63.670051</v>
       </c>
       <c r="O3">
-        <v>0.0818177333691609</v>
+        <v>0.06187552447834749</v>
       </c>
       <c r="P3">
-        <v>0.0818177333691609</v>
+        <v>0.06187552447834749</v>
       </c>
       <c r="Q3">
-        <v>1099.729344199056</v>
+        <v>1219.887021281711</v>
       </c>
       <c r="R3">
-        <v>1099.729344199056</v>
+        <v>10978.9831915354</v>
       </c>
       <c r="S3">
-        <v>0.01904714142556418</v>
+        <v>0.01494093794644817</v>
       </c>
       <c r="T3">
-        <v>0.01904714142556418</v>
+        <v>0.01494093794644817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="H4">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="I4">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="J4">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.499639156866</v>
+        <v>236.9265036666667</v>
       </c>
       <c r="N4">
-        <v>227.499639156866</v>
+        <v>710.779511</v>
       </c>
       <c r="O4">
-        <v>0.8790556768516772</v>
+        <v>0.6907463452728876</v>
       </c>
       <c r="P4">
-        <v>0.8790556768516772</v>
+        <v>0.6907463452728876</v>
       </c>
       <c r="Q4">
-        <v>11815.57204300326</v>
+        <v>13618.18762265262</v>
       </c>
       <c r="R4">
-        <v>11815.57204300326</v>
+        <v>122563.6886038736</v>
       </c>
       <c r="S4">
-        <v>0.2046438725256837</v>
+        <v>0.1667929018536168</v>
       </c>
       <c r="T4">
-        <v>0.2046438725256837</v>
+        <v>0.1667929018536168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.9366627867755</v>
+        <v>57.478532</v>
       </c>
       <c r="H5">
-        <v>51.9366627867755</v>
+        <v>172.435596</v>
       </c>
       <c r="I5">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="J5">
-        <v>0.2327996711864853</v>
+        <v>0.2414676574042868</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.35194823468175</v>
+        <v>5.385198333333332</v>
       </c>
       <c r="N5">
-        <v>5.35194823468175</v>
+        <v>16.155595</v>
       </c>
       <c r="O5">
-        <v>0.02067985907735589</v>
+        <v>0.01570025307321912</v>
       </c>
       <c r="P5">
-        <v>0.02067985907735589</v>
+        <v>0.01570025307321912</v>
       </c>
       <c r="Q5">
-        <v>277.9623307169445</v>
+        <v>309.5332947288466</v>
       </c>
       <c r="R5">
-        <v>277.9623307169445</v>
+        <v>2785.79965255962</v>
       </c>
       <c r="S5">
-        <v>0.004814264393391303</v>
+        <v>0.003791103330244675</v>
       </c>
       <c r="T5">
-        <v>0.004814264393391303</v>
+        <v>0.003791103330244676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="H6">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="I6">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="J6">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.77401453490967</v>
+        <v>79.465682</v>
       </c>
       <c r="N6">
-        <v>4.77401453490967</v>
+        <v>238.397046</v>
       </c>
       <c r="O6">
-        <v>0.01844673070180608</v>
+        <v>0.2316778771755457</v>
       </c>
       <c r="P6">
-        <v>0.01844673070180608</v>
+        <v>0.2316778771755458</v>
       </c>
       <c r="Q6">
-        <v>307.4403106555536</v>
+        <v>5152.589097077504</v>
       </c>
       <c r="R6">
-        <v>307.4403106555536</v>
+        <v>46373.30187369753</v>
       </c>
       <c r="S6">
-        <v>0.005324818427247292</v>
+        <v>0.06310790476489726</v>
       </c>
       <c r="T6">
-        <v>0.005324818427247292</v>
+        <v>0.06310790476489728</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="H7">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="I7">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="J7">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1744321870268</v>
+        <v>21.22335033333333</v>
       </c>
       <c r="N7">
-        <v>21.1744321870268</v>
+        <v>63.670051</v>
       </c>
       <c r="O7">
-        <v>0.0818177333691609</v>
+        <v>0.06187552447834749</v>
       </c>
       <c r="P7">
-        <v>0.0818177333691609</v>
+        <v>0.06187552447834749</v>
       </c>
       <c r="Q7">
-        <v>1363.605821040435</v>
+        <v>1376.131189951777</v>
       </c>
       <c r="R7">
-        <v>1363.605821040435</v>
+        <v>12385.180709566</v>
       </c>
       <c r="S7">
-        <v>0.02361744101772239</v>
+        <v>0.01685458600390607</v>
       </c>
       <c r="T7">
-        <v>0.02361744101772239</v>
+        <v>0.01685458600390607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="H8">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="I8">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="J8">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>227.499639156866</v>
+        <v>236.9265036666667</v>
       </c>
       <c r="N8">
-        <v>227.499639156866</v>
+        <v>710.779511</v>
       </c>
       <c r="O8">
-        <v>0.8790556768516772</v>
+        <v>0.6907463452728876</v>
       </c>
       <c r="P8">
-        <v>0.8790556768516772</v>
+        <v>0.6907463452728876</v>
       </c>
       <c r="Q8">
-        <v>14650.68009847118</v>
+        <v>15362.41669204525</v>
       </c>
       <c r="R8">
-        <v>14650.68009847118</v>
+        <v>138261.7502284072</v>
       </c>
       <c r="S8">
-        <v>0.2537475036819324</v>
+        <v>0.1881558787814352</v>
       </c>
       <c r="T8">
-        <v>0.2537475036819324</v>
+        <v>0.1881558787814353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.3986959837295</v>
+        <v>64.84043133333334</v>
       </c>
       <c r="H9">
-        <v>64.3986959837295</v>
+        <v>194.521294</v>
       </c>
       <c r="I9">
-        <v>0.2886591945924571</v>
+        <v>0.272395040623924</v>
       </c>
       <c r="J9">
-        <v>0.2886591945924571</v>
+        <v>0.2723950406239241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.35194823468175</v>
+        <v>5.385198333333332</v>
       </c>
       <c r="N9">
-        <v>5.35194823468175</v>
+        <v>16.155595</v>
       </c>
       <c r="O9">
-        <v>0.02067985907735589</v>
+        <v>0.01570025307321912</v>
       </c>
       <c r="P9">
-        <v>0.02067985907735589</v>
+        <v>0.01570025307321912</v>
       </c>
       <c r="Q9">
-        <v>344.6584872859278</v>
+        <v>349.1785827488811</v>
       </c>
       <c r="R9">
-        <v>344.6584872859278</v>
+        <v>3142.60724473993</v>
       </c>
       <c r="S9">
-        <v>0.005969431465555063</v>
+        <v>0.00427667107368541</v>
       </c>
       <c r="T9">
-        <v>0.005969431465555063</v>
+        <v>0.004276671073685411</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="H10">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="I10">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="J10">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.77401453490967</v>
+        <v>79.465682</v>
       </c>
       <c r="N10">
-        <v>4.77401453490967</v>
+        <v>238.397046</v>
       </c>
       <c r="O10">
-        <v>0.01844673070180608</v>
+        <v>0.2316778771755457</v>
       </c>
       <c r="P10">
-        <v>0.01844673070180608</v>
+        <v>0.2316778771755458</v>
       </c>
       <c r="Q10">
-        <v>365.3804610135555</v>
+        <v>6779.658895726313</v>
       </c>
       <c r="R10">
-        <v>365.3804610135555</v>
+        <v>61016.93006153682</v>
       </c>
       <c r="S10">
-        <v>0.006328332831867528</v>
+        <v>0.08303593783029525</v>
       </c>
       <c r="T10">
-        <v>0.006328332831867528</v>
+        <v>0.08303593783029527</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="H11">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="I11">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="J11">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.1744321870268</v>
+        <v>21.22335033333333</v>
       </c>
       <c r="N11">
-        <v>21.1744321870268</v>
+        <v>63.670051</v>
       </c>
       <c r="O11">
-        <v>0.0818177333691609</v>
+        <v>0.06187552447834749</v>
       </c>
       <c r="P11">
-        <v>0.0818177333691609</v>
+        <v>0.06187552447834749</v>
       </c>
       <c r="Q11">
-        <v>1620.59074969752</v>
+        <v>1810.681948020019</v>
       </c>
       <c r="R11">
-        <v>1620.59074969752</v>
+        <v>16296.13753218017</v>
       </c>
       <c r="S11">
-        <v>0.0280683800657615</v>
+        <v>0.02217687880447867</v>
       </c>
       <c r="T11">
-        <v>0.0280683800657615</v>
+        <v>0.02217687880447868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="H12">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="I12">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="J12">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>227.499639156866</v>
+        <v>236.9265036666667</v>
       </c>
       <c r="N12">
-        <v>227.499639156866</v>
+        <v>710.779511</v>
       </c>
       <c r="O12">
-        <v>0.8790556768516772</v>
+        <v>0.6907463452728876</v>
       </c>
       <c r="P12">
-        <v>0.8790556768516772</v>
+        <v>0.6907463452728876</v>
       </c>
       <c r="Q12">
-        <v>17411.7448591149</v>
+        <v>20213.51654940871</v>
       </c>
       <c r="R12">
-        <v>17411.7448591149</v>
+        <v>181921.6489446783</v>
       </c>
       <c r="S12">
-        <v>0.3015687164726346</v>
+        <v>0.2475712022306</v>
       </c>
       <c r="T12">
-        <v>0.3015687164726346</v>
+        <v>0.2475712022306001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.53526363226059</v>
+        <v>85.31555666666667</v>
       </c>
       <c r="H13">
-        <v>76.53526363226059</v>
+        <v>255.94667</v>
       </c>
       <c r="I13">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579104</v>
       </c>
       <c r="J13">
-        <v>0.3430598589075697</v>
+        <v>0.3584111648579105</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.35194823468175</v>
+        <v>5.385198333333332</v>
       </c>
       <c r="N13">
-        <v>5.35194823468175</v>
+        <v>16.155595</v>
       </c>
       <c r="O13">
-        <v>0.02067985907735589</v>
+        <v>0.01570025307321912</v>
       </c>
       <c r="P13">
-        <v>0.02067985907735589</v>
+        <v>0.01570025307321912</v>
       </c>
       <c r="Q13">
-        <v>409.6127690875794</v>
+        <v>459.4411935687388</v>
       </c>
       <c r="R13">
-        <v>409.6127690875794</v>
+        <v>4134.970742118649</v>
       </c>
       <c r="S13">
-        <v>0.007094429537306136</v>
+        <v>0.005627145992536453</v>
       </c>
       <c r="T13">
-        <v>0.007094429537306136</v>
+        <v>0.005627145992536454</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="H14">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="I14">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="J14">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.77401453490967</v>
+        <v>79.465682</v>
       </c>
       <c r="N14">
-        <v>4.77401453490967</v>
+        <v>238.397046</v>
       </c>
       <c r="O14">
-        <v>0.01844673070180608</v>
+        <v>0.2316778771755457</v>
       </c>
       <c r="P14">
-        <v>0.01844673070180608</v>
+        <v>0.2316778771755458</v>
       </c>
       <c r="Q14">
-        <v>144.2961324311743</v>
+        <v>2416.050967731885</v>
       </c>
       <c r="R14">
-        <v>144.2961324311743</v>
+        <v>21744.45870958697</v>
       </c>
       <c r="S14">
-        <v>0.002499186600845159</v>
+        <v>0.02959132030637611</v>
       </c>
       <c r="T14">
-        <v>0.002499186600845159</v>
+        <v>0.02959132030637612</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="H15">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="I15">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="J15">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.1744321870268</v>
+        <v>21.22335033333333</v>
       </c>
       <c r="N15">
-        <v>21.1744321870268</v>
+        <v>63.670051</v>
       </c>
       <c r="O15">
-        <v>0.0818177333691609</v>
+        <v>0.06187552447834749</v>
       </c>
       <c r="P15">
-        <v>0.0818177333691609</v>
+        <v>0.06187552447834749</v>
       </c>
       <c r="Q15">
-        <v>640.0040571036825</v>
+        <v>645.2684331251675</v>
       </c>
       <c r="R15">
-        <v>640.0040571036825</v>
+        <v>5807.415898126508</v>
       </c>
       <c r="S15">
-        <v>0.01108477086011283</v>
+        <v>0.00790312172351457</v>
       </c>
       <c r="T15">
-        <v>0.01108477086011283</v>
+        <v>0.007903121723514574</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="H16">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="I16">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="J16">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.499639156866</v>
+        <v>236.9265036666667</v>
       </c>
       <c r="N16">
-        <v>227.499639156866</v>
+        <v>710.779511</v>
       </c>
       <c r="O16">
-        <v>0.8790556768516772</v>
+        <v>0.6907463452728876</v>
       </c>
       <c r="P16">
-        <v>0.8790556768516772</v>
+        <v>0.6907463452728876</v>
       </c>
       <c r="Q16">
-        <v>6876.250128644536</v>
+        <v>7203.442971334242</v>
       </c>
       <c r="R16">
-        <v>6876.250128644536</v>
+        <v>64830.98674200818</v>
       </c>
       <c r="S16">
-        <v>0.1190955841714265</v>
+        <v>0.08822636240723546</v>
       </c>
       <c r="T16">
-        <v>0.1190955841714265</v>
+        <v>0.08822636240723548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.2253232318457</v>
+        <v>30.40370266666666</v>
       </c>
       <c r="H17">
-        <v>30.2253232318457</v>
+        <v>91.211108</v>
       </c>
       <c r="I17">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138787</v>
       </c>
       <c r="J17">
-        <v>0.1354812753134879</v>
+        <v>0.1277261371138788</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.35194823468175</v>
+        <v>5.385198333333332</v>
       </c>
       <c r="N17">
-        <v>5.35194823468175</v>
+        <v>16.155595</v>
       </c>
       <c r="O17">
-        <v>0.02067985907735589</v>
+        <v>0.01570025307321912</v>
       </c>
       <c r="P17">
-        <v>0.02067985907735589</v>
+        <v>0.01570025307321912</v>
       </c>
       <c r="Q17">
-        <v>161.7643653133619</v>
+        <v>163.7299689276955</v>
       </c>
       <c r="R17">
-        <v>161.7643653133619</v>
+        <v>1473.56972034926</v>
       </c>
       <c r="S17">
-        <v>0.002801733681103384</v>
+        <v>0.002005332676752581</v>
       </c>
       <c r="T17">
-        <v>0.002801733681103384</v>
+        <v>0.002005332676752582</v>
       </c>
     </row>
   </sheetData>
